--- a/cortisol-finished.xlsx
+++ b/cortisol-finished.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-intermediate-stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-intermediate-stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BEFBDB0A-72F4-43B9-8108-388934BEC3DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C1F57E-DC10-4597-8B3C-C79C3E6EAC0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="133" windowWidth="25786" windowHeight="14587" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
     <sheet name="wilcoxon-matched-pairs-data" sheetId="1" r:id="rId2"/>
     <sheet name="lookup" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'wilcoxon-matched-pairs-data'!$B$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'wilcoxon-matched-pairs-data'!$B$3:$B$22</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'wilcoxon-matched-pairs-data'!$C$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'wilcoxon-matched-pairs-data'!$C$3:$C$22</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'wilcoxon-matched-pairs-data'!$B$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'wilcoxon-matched-pairs-data'!$B$3:$B$22</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'wilcoxon-matched-pairs-data'!$C$2</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'wilcoxon-matched-pairs-data'!$C$3:$C$22</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -918,21 +918,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -943,25 +943,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.71875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.38671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="D1" s="1" t="str">
         <f ca="1">IFERROR(_xlfn.FORMULATEXT(D3),"")</f>
         <v>=SIGN(B3-C3)</v>
@@ -975,7 +975,7 @@
         <v>=RANK(E3,$E$3:$E$22,1)*D3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -998,7 +998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1496,7 +1496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1504,12 +1504,12 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>16</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>17</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>18</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>19</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>20</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>21</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>22</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>23</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>24</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>25</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>26</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>27</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>29</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>30</v>
       </c>
